--- a/com.project.OnlineFoodOrdering/src/test/resources/Sdet37TestData.xlsx
+++ b/com.project.OnlineFoodOrdering/src/test/resources/Sdet37TestData.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14715" windowHeight="6540"/>
   </bookViews>
   <sheets>
     <sheet name="Organisations" sheetId="1" r:id="rId1"/>
     <sheet name="Contacts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>TestID</t>
   </si>
@@ -28,21 +29,12 @@
     <t>TestName</t>
   </si>
   <si>
-    <t>OrgName</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>TC_01</t>
   </si>
   <si>
-    <t>CreateOrg</t>
-  </si>
-  <si>
-    <t>TyssRmg</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -62,139 +54,13 @@
   </si>
   <si>
     <t>RMG</t>
-  </si>
-  <si>
-    <t>IndustryDropDown</t>
-  </si>
-  <si>
-    <t>Type DropDown</t>
-  </si>
-  <si>
-    <t>Apparel</t>
-  </si>
-  <si>
-    <t>Banking</t>
-  </si>
-  <si>
-    <t>Biotechnology</t>
-  </si>
-  <si>
-    <t>Chemicals</t>
-  </si>
-  <si>
-    <t>Communications</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Consulting</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Electronics</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>Entertainment</t>
-  </si>
-  <si>
-    <t>Environmental</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Food &amp; Beverage</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Hospitality</t>
-  </si>
-  <si>
-    <t>Insurance</t>
-  </si>
-  <si>
-    <t>Machinery</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Not For Profit</t>
-  </si>
-  <si>
-    <t>Recreation</t>
-  </si>
-  <si>
-    <t>Retail</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Telecommunications</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Analyst</t>
-  </si>
-  <si>
-    <t>Competitor</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Integrator</t>
-  </si>
-  <si>
-    <t>Investor</t>
-  </si>
-  <si>
-    <t>Partner</t>
-  </si>
-  <si>
-    <t>Press</t>
-  </si>
-  <si>
-    <t>Prospect</t>
-  </si>
-  <si>
-    <t>Reseller</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,7 +161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -330,7 +196,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -507,21 +373,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
@@ -530,223 +396,45 @@
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>46</v>
-      </c>
-    </row>
+    <row r="2" spans="1:6"/>
+    <row r="3" spans="1:6"/>
+    <row r="4" spans="1:6"/>
+    <row r="5" spans="1:6"/>
+    <row r="6" spans="1:6"/>
+    <row r="7" spans="1:6"/>
+    <row r="8" spans="1:6"/>
+    <row r="9" spans="1:6"/>
+    <row r="10" spans="1:6"/>
+    <row r="11" spans="1:6"/>
+    <row r="12" spans="1:6"/>
+    <row r="13" spans="1:6"/>
+    <row r="14" spans="1:6"/>
+    <row r="15" spans="1:6"/>
+    <row r="16" spans="1:6"/>
+    <row r="17" spans="4:4"/>
+    <row r="18" spans="4:4"/>
+    <row r="19" spans="4:4"/>
+    <row r="20" spans="4:4"/>
+    <row r="21" spans="4:4"/>
+    <row r="22" spans="4:4"/>
+    <row r="23" spans="4:4"/>
+    <row r="24" spans="4:4"/>
+    <row r="25" spans="4:4"/>
+    <row r="26" spans="4:4"/>
+    <row r="27" spans="4:4"/>
+    <row r="28" spans="4:4"/>
+    <row r="29" spans="4:4"/>
+    <row r="30" spans="4:4"/>
+    <row r="31" spans="4:4"/>
+    <row r="32" spans="4:4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -754,14 +442,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -769,7 +457,7 @@
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,36 +465,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
